--- a/TravelTour/카레부부Tour.xlsx
+++ b/TravelTour/카레부부Tour.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\03_Doc\01_doc_ind\TravelTour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD796722-2681-435E-B3B0-CD923339792E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDB98FA-8F13-4C39-90B6-8AEE94C0BE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63975" yWindow="45" windowWidth="29010" windowHeight="15135" activeTab="2" xr2:uid="{A9E2509F-30FC-4716-9636-B2AF4D93E148}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A9E2509F-30FC-4716-9636-B2AF4D93E148}"/>
   </bookViews>
   <sheets>
     <sheet name="Recommand" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>벽초지 수목원</t>
   </si>
@@ -50,10 +50,85 @@
     <t>신두리 해안 사구</t>
   </si>
   <si>
-    <t>충남</t>
-  </si>
-  <si>
-    <t>태안</t>
+    <t>서울로 7017</t>
+  </si>
+  <si>
+    <t>서울</t>
+  </si>
+  <si>
+    <t>서울역</t>
+  </si>
+  <si>
+    <t>낙산 공원, 이화동 벽화마을</t>
+  </si>
+  <si>
+    <t>인왕산 자락길, 서울 한양 도성길</t>
+  </si>
+  <si>
+    <t>경북 경주</t>
+  </si>
+  <si>
+    <t>신라의 달밤</t>
+  </si>
+  <si>
+    <t>첨성대</t>
+  </si>
+  <si>
+    <t>동궁과 월지</t>
+  </si>
+  <si>
+    <t>월정교</t>
+  </si>
+  <si>
+    <t>분황사</t>
+  </si>
+  <si>
+    <t>스타벅스 경주 대릉원점</t>
+  </si>
+  <si>
+    <t>충남 태안</t>
+  </si>
+  <si>
+    <t>태안 파도리 해수욕장</t>
+  </si>
+  <si>
+    <t>태안 성당</t>
+  </si>
+  <si>
+    <t>전남 담양</t>
+  </si>
+  <si>
+    <t>야간 투어</t>
+  </si>
+  <si>
+    <t>담양 국수 거리</t>
+  </si>
+  <si>
+    <t>관방제림 야간 투어-플라타너스 별빛달빛길</t>
+  </si>
+  <si>
+    <t>제주</t>
+  </si>
+  <si>
+    <t>사구</t>
+  </si>
+  <si>
+    <t>해맞이 해안로 드라이브</t>
+  </si>
+  <si>
+    <t>안돌 오름 비밀의 숲</t>
+  </si>
+  <si>
+    <t>좌보미알 오름 억새밭</t>
+  </si>
+  <si>
+    <t>봄 데이트</t>
+  </si>
+  <si>
+    <t>사려니숲길 유채꽃밭</t>
+  </si>
+  <si>
+    <t>제주도 메밀꽃밭</t>
   </si>
 </sst>
 </file>
@@ -69,12 +144,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -89,11 +170,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF5707D-9530-450D-834B-00B0A2C88B53}">
-  <dimension ref="B3:E4"/>
+  <dimension ref="B3:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,16 +517,29 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -455,12 +550,114 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E991233-8A5F-41E2-9819-7A2052B5CF8A}">
-  <dimension ref="A1"/>
+  <dimension ref="B4:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -469,7 +666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0B2E10-4F55-4F5E-A4FD-0D87AA0976A1}">
   <dimension ref="B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>

--- a/TravelTour/카레부부Tour.xlsx
+++ b/TravelTour/카레부부Tour.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\03_Doc\01_doc_ind\TravelTour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDB98FA-8F13-4C39-90B6-8AEE94C0BE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8147E7C0-56B6-4249-9D46-78466EDCA772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A9E2509F-30FC-4716-9636-B2AF4D93E148}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A9E2509F-30FC-4716-9636-B2AF4D93E148}"/>
   </bookViews>
   <sheets>
     <sheet name="Recommand" sheetId="2" r:id="rId1"/>
     <sheet name="Romantic" sheetId="1" r:id="rId2"/>
-    <sheet name="Healing" sheetId="3" r:id="rId3"/>
+    <sheet name="Healing" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>벽초지 수목원</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>제주도 메밀꽃밭</t>
+  </si>
+  <si>
+    <t>슬로우 시티</t>
+  </si>
+  <si>
+    <t>창평슬로시티(삼지내 마을)</t>
+  </si>
+  <si>
+    <t>에약 필요?</t>
   </si>
 </sst>
 </file>
@@ -492,7 +501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF5707D-9530-450D-834B-00B0A2C88B53}">
   <dimension ref="B3:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -663,19 +672,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0B2E10-4F55-4F5E-A4FD-0D87AA0976A1}">
-  <dimension ref="B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50464FB8-D22C-4372-95BC-1980CFD15469}">
+  <dimension ref="B4:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TravelTour/카레부부Tour.xlsx
+++ b/TravelTour/카레부부Tour.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\03_Doc\01_doc_ind\TravelTour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8147E7C0-56B6-4249-9D46-78466EDCA772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135898AC-CBA0-43B1-ABB3-AD5A5C524673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A9E2509F-30FC-4716-9636-B2AF4D93E148}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{A9E2509F-30FC-4716-9636-B2AF4D93E148}"/>
   </bookViews>
   <sheets>
     <sheet name="Recommand" sheetId="2" r:id="rId1"/>
     <sheet name="Romantic" sheetId="1" r:id="rId2"/>
     <sheet name="Healing" sheetId="4" r:id="rId3"/>
+    <sheet name="Energetic" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>벽초지 수목원</t>
   </si>
@@ -138,6 +139,21 @@
   </si>
   <si>
     <t>에약 필요?</t>
+  </si>
+  <si>
+    <t>경기 안산</t>
+  </si>
+  <si>
+    <t>대부도 해솔길</t>
+  </si>
+  <si>
+    <t>구봉도 낙조 전망대</t>
+  </si>
+  <si>
+    <t>대부 해솔길 드라이브, 트래킹</t>
+  </si>
+  <si>
+    <t>7코스</t>
   </si>
 </sst>
 </file>
@@ -675,7 +691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50464FB8-D22C-4372-95BC-1980CFD15469}">
   <dimension ref="B4:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -705,4 +721,45 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21313BC-C3D3-457C-8C88-B1E4C5A38023}">
+  <dimension ref="B4:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TravelTour/카레부부Tour.xlsx
+++ b/TravelTour/카레부부Tour.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\03_Doc\01_doc_ind\TravelTour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135898AC-CBA0-43B1-ABB3-AD5A5C524673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD42E66-9FEE-41F9-9CE7-A92FCCEAD04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{A9E2509F-30FC-4716-9636-B2AF4D93E148}"/>
+    <workbookView xWindow="30165" yWindow="420" windowWidth="26010" windowHeight="15135" activeTab="5" xr2:uid="{A9E2509F-30FC-4716-9636-B2AF4D93E148}"/>
   </bookViews>
   <sheets>
     <sheet name="Recommand" sheetId="2" r:id="rId1"/>
     <sheet name="Romantic" sheetId="1" r:id="rId2"/>
     <sheet name="Healing" sheetId="4" r:id="rId3"/>
     <sheet name="Energetic" sheetId="5" r:id="rId4"/>
+    <sheet name="Etc" sheetId="6" r:id="rId5"/>
+    <sheet name="맛집" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
   <si>
     <t>벽초지 수목원</t>
   </si>
@@ -154,6 +156,138 @@
   </si>
   <si>
     <t>7코스</t>
+  </si>
+  <si>
+    <t>어린이상상스페이스</t>
+  </si>
+  <si>
+    <t>어린이/보호자 6세 ~ 저학년</t>
+  </si>
+  <si>
+    <t>갈비락(이동)</t>
+  </si>
+  <si>
+    <t>소갈비, 돼지갈비, 갈비탕, 함흥냉면</t>
+  </si>
+  <si>
+    <t>상록구 서암로3길 1(사동)</t>
+  </si>
+  <si>
+    <t>2층 100석, 3층 100석</t>
+  </si>
+  <si>
+    <t>031-408-9595</t>
+  </si>
+  <si>
+    <t>무료, 예약제</t>
+  </si>
+  <si>
+    <t>솥뚜껑 삼겹살</t>
+  </si>
+  <si>
+    <t>와인삼겹살, 갈비찜</t>
+  </si>
+  <si>
+    <t>평가</t>
+  </si>
+  <si>
+    <t>단원구 광덕대로 145 (고잔동)</t>
+  </si>
+  <si>
+    <t>140석</t>
+  </si>
+  <si>
+    <t>주차 건물 지하</t>
+  </si>
+  <si>
+    <t>주차 1층 전용</t>
+  </si>
+  <si>
+    <t>031-480-3010</t>
+  </si>
+  <si>
+    <t>쉐프의 정육식당</t>
+  </si>
+  <si>
+    <t>워터 에이징 무항생제 고기 연탄불 구이</t>
+  </si>
+  <si>
+    <t>상록구 감골1로 35 (사동)</t>
+  </si>
+  <si>
+    <t>40석</t>
+  </si>
+  <si>
+    <t>주차 가능</t>
+  </si>
+  <si>
+    <t>031-417-1004</t>
+  </si>
+  <si>
+    <t>육덕봉</t>
+  </si>
+  <si>
+    <t>양푼 왕갈비</t>
+  </si>
+  <si>
+    <t>코리안 왕돈가스</t>
+  </si>
+  <si>
+    <t>태능골</t>
+  </si>
+  <si>
+    <t>소한마리+한우육회, 돼지한마리+한우육회</t>
+  </si>
+  <si>
+    <t>상록구 충장로6길 22-2 (이동)</t>
+  </si>
+  <si>
+    <t>좌식 48석, 의자식 24석</t>
+  </si>
+  <si>
+    <t>031-409-8954</t>
+  </si>
+  <si>
+    <t>매운 갈비찜</t>
+  </si>
+  <si>
+    <t>상록구 송호1길 5 (이동)</t>
+  </si>
+  <si>
+    <t>1층 48석, 2층 48석</t>
+  </si>
+  <si>
+    <t>주차 건물 앞</t>
+  </si>
+  <si>
+    <t>031-406-7800</t>
+  </si>
+  <si>
+    <t>왕돈가스, 생선가스, 함박스테이크</t>
+  </si>
+  <si>
+    <t>단원구 와동공원로 106 (와동)</t>
+  </si>
+  <si>
+    <t>주차 주변도로</t>
+  </si>
+  <si>
+    <t>031-403-3228</t>
+  </si>
+  <si>
+    <t>삼겹살, 소갈빗살, 한방백숙, 전복 삼겹살</t>
+  </si>
+  <si>
+    <t>상록구 안산천동록 170 (월피동)</t>
+  </si>
+  <si>
+    <t>80석</t>
+  </si>
+  <si>
+    <t>주차장 전용</t>
+  </si>
+  <si>
+    <t>031-439-5092</t>
   </si>
 </sst>
 </file>
@@ -727,7 +861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21313BC-C3D3-457C-8C88-B1E4C5A38023}">
   <dimension ref="B4:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -762,4 +896,205 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7576F2D1-7EAC-41CD-8A4B-D28EA6C7E546}">
+  <dimension ref="B4:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E69CE1-B0B3-4FB3-BFCF-B6BA63C685D2}">
+  <dimension ref="B3:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TravelTour/카레부부Tour.xlsx
+++ b/TravelTour/카레부부Tour.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\03_Doc\01_doc_ind\TravelTour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD42E66-9FEE-41F9-9CE7-A92FCCEAD04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F43EF4-EDEB-4F86-AF8F-07C4707F0E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30165" yWindow="420" windowWidth="26010" windowHeight="15135" activeTab="5" xr2:uid="{A9E2509F-30FC-4716-9636-B2AF4D93E148}"/>
+    <workbookView xWindow="57990" yWindow="690" windowWidth="22680" windowHeight="15135" activeTab="2" xr2:uid="{A9E2509F-30FC-4716-9636-B2AF4D93E148}"/>
   </bookViews>
   <sheets>
     <sheet name="Recommand" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
   <si>
     <t>벽초지 수목원</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t>031-439-5092</t>
+  </si>
+  <si>
+    <t>변산반도 고사포 해변</t>
+  </si>
+  <si>
+    <t>전북</t>
   </si>
 </sst>
 </file>
@@ -823,10 +829,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50464FB8-D22C-4372-95BC-1980CFD15469}">
-  <dimension ref="B4:F4"/>
+  <dimension ref="B4:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,6 +856,14 @@
       </c>
       <c r="F4" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -938,7 +952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E69CE1-B0B3-4FB3-BFCF-B6BA63C685D2}">
   <dimension ref="B3:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>

--- a/TravelTour/카레부부Tour.xlsx
+++ b/TravelTour/카레부부Tour.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\03_Doc\01_doc_ind\TravelTour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F43EF4-EDEB-4F86-AF8F-07C4707F0E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93911975-02B0-4FB0-B07C-3D3C1B07A8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57990" yWindow="690" windowWidth="22680" windowHeight="15135" activeTab="2" xr2:uid="{A9E2509F-30FC-4716-9636-B2AF4D93E148}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{A9E2509F-30FC-4716-9636-B2AF4D93E148}"/>
   </bookViews>
   <sheets>
     <sheet name="Recommand" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="95">
   <si>
     <t>벽초지 수목원</t>
   </si>
@@ -294,6 +294,36 @@
   </si>
   <si>
     <t>전북</t>
+  </si>
+  <si>
+    <t>뉴욕바닷가재</t>
+  </si>
+  <si>
+    <t>상록구 석호공원로 77(사동)</t>
+  </si>
+  <si>
+    <t>먹물오징어</t>
+  </si>
+  <si>
+    <t>단원구 광덕2로 163-11(고잔동)</t>
+  </si>
+  <si>
+    <t>어부</t>
+  </si>
+  <si>
+    <t>상록구 예술광장로 55(성포동)</t>
+  </si>
+  <si>
+    <t>비금도횟집</t>
+  </si>
+  <si>
+    <t>상록구 본오로 26(본오동)</t>
+  </si>
+  <si>
+    <t>사계절참맛</t>
+  </si>
+  <si>
+    <t>단원구 광덕3로 145-5(고잔동)</t>
   </si>
 </sst>
 </file>
@@ -831,7 +861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50464FB8-D22C-4372-95BC-1980CFD15469}">
   <dimension ref="B4:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -950,10 +980,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E69CE1-B0B3-4FB3-BFCF-B6BA63C685D2}">
-  <dimension ref="B3:H10"/>
+  <dimension ref="B3:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,6 +1138,46 @@
         <v>82</v>
       </c>
     </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TravelTour/카레부부Tour.xlsx
+++ b/TravelTour/카레부부Tour.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\03_Doc\01_doc_ind\TravelTour\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\03_doc\TravelTour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93911975-02B0-4FB0-B07C-3D3C1B07A8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B3DE69-8656-4698-9316-0DBA1611C572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{A9E2509F-30FC-4716-9636-B2AF4D93E148}"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="27090" windowHeight="15315" activeTab="5" xr2:uid="{A9E2509F-30FC-4716-9636-B2AF4D93E148}"/>
   </bookViews>
   <sheets>
     <sheet name="Recommand" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="112">
   <si>
     <t>벽초지 수목원</t>
   </si>
@@ -324,18 +324,93 @@
   </si>
   <si>
     <t>단원구 광덕3로 145-5(고잔동)</t>
+  </si>
+  <si>
+    <t>안산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대부바다향기테마파크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전쟁역사박물관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김서방 명태이야기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단원구 선부광장1로 70(선부동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매콤 코다리조림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단원구 광덕3로 39(초지동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명태마루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상록구 항가울로 29(사동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별망시래기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단원구 광덕1로 64(초지동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주가네 명태간장조림 생선구이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상록구 성호로 130(일동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해미청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아귀찜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상록구 각골로 47(본오동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -373,7 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -389,7 +464,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -691,13 +766,13 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
         <v>8</v>
       </c>
@@ -711,7 +786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -722,7 +797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -730,7 +805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>8</v>
       </c>
@@ -739,6 +814,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -751,16 +827,16 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.69921875" customWidth="1"/>
+    <col min="3" max="3" width="2.69921875" customWidth="1"/>
+    <col min="4" max="4" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -774,7 +850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E5" t="s">
         <v>12</v>
       </c>
@@ -782,12 +858,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -801,12 +877,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -817,12 +893,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>23</v>
       </c>
@@ -833,12 +909,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -853,6 +929,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -862,19 +939,19 @@
   <dimension ref="B4:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.69921875" customWidth="1"/>
+    <col min="3" max="3" width="2.69921875" customWidth="1"/>
+    <col min="4" max="4" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -888,7 +965,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>84</v>
       </c>
@@ -897,7 +974,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -909,16 +988,16 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.69921875" customWidth="1"/>
+    <col min="3" max="3" width="2.69921875" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>34</v>
       </c>
@@ -929,7 +1008,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E5" t="s">
         <v>37</v>
       </c>
@@ -938,28 +1017,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7576F2D1-7EAC-41CD-8A4B-D28EA6C7E546}">
-  <dimension ref="B4:F4"/>
+  <dimension ref="B4:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.69921875" customWidth="1"/>
+    <col min="3" max="3" width="2.69921875" customWidth="1"/>
+    <col min="4" max="4" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>34</v>
       </c>
@@ -973,35 +1053,52 @@
         <v>46</v>
       </c>
     </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E69CE1-B0B3-4FB3-BFCF-B6BA63C685D2}">
-  <dimension ref="B3:H16"/>
+  <dimension ref="B3:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.3984375" customWidth="1"/>
+    <col min="3" max="3" width="41.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="H3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>41</v>
       </c>
@@ -1021,7 +1118,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>47</v>
       </c>
@@ -1041,7 +1138,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>55</v>
       </c>
@@ -1061,7 +1158,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>61</v>
       </c>
@@ -1078,7 +1175,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>62</v>
       </c>
@@ -1098,7 +1195,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>63</v>
       </c>
@@ -1118,7 +1215,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>64</v>
       </c>
@@ -1138,7 +1235,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>85</v>
       </c>
@@ -1146,7 +1243,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>87</v>
       </c>
@@ -1154,7 +1251,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>89</v>
       </c>
@@ -1162,7 +1259,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>91</v>
       </c>
@@ -1170,7 +1267,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>93</v>
       </c>
@@ -1178,7 +1275,59 @@
         <v>94</v>
       </c>
     </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TravelTour/카레부부Tour.xlsx
+++ b/TravelTour/카레부부Tour.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\03_doc\TravelTour\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\03_Doc\01_doc_ind\TravelTour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B3DE69-8656-4698-9316-0DBA1611C572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE33C419-FA9A-479A-AFF4-CE621DE55E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="27090" windowHeight="15315" activeTab="5" xr2:uid="{A9E2509F-30FC-4716-9636-B2AF4D93E148}"/>
+    <workbookView xWindow="29190" yWindow="390" windowWidth="26835" windowHeight="14820" activeTab="2" xr2:uid="{A9E2509F-30FC-4716-9636-B2AF4D93E148}"/>
   </bookViews>
   <sheets>
     <sheet name="Recommand" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="113">
   <si>
     <t>벽초지 수목원</t>
   </si>
@@ -392,23 +392,26 @@
   <si>
     <t>상록구 각골로 47(본오동)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주왕산</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -448,7 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -464,7 +467,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -766,13 +769,13 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5">
       <c r="B3" s="1">
         <v>8</v>
       </c>
@@ -786,7 +789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -797,7 +800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5">
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -805,7 +808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5">
       <c r="C6" t="s">
         <v>8</v>
       </c>
@@ -827,16 +830,16 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.69921875" customWidth="1"/>
-    <col min="3" max="3" width="2.69921875" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -850,7 +853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6">
       <c r="E5" t="s">
         <v>12</v>
       </c>
@@ -858,12 +861,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6">
       <c r="E6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -877,12 +880,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6">
       <c r="E8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -893,12 +896,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6">
       <c r="E10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:6">
       <c r="B11" t="s">
         <v>23</v>
       </c>
@@ -909,12 +912,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:6">
       <c r="E12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:6">
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -936,22 +939,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50464FB8-D22C-4372-95BC-1980CFD15469}">
-  <dimension ref="B4:F5"/>
+  <dimension ref="B4:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.69921875" customWidth="1"/>
-    <col min="3" max="3" width="2.69921875" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -965,12 +968,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6">
       <c r="B5" t="s">
         <v>84</v>
       </c>
       <c r="E5" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="E6" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -988,16 +996,16 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.69921875" customWidth="1"/>
-    <col min="3" max="3" width="2.69921875" customWidth="1"/>
-    <col min="4" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6">
       <c r="B4" t="s">
         <v>34</v>
       </c>
@@ -1008,7 +1016,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6">
       <c r="E5" t="s">
         <v>37</v>
       </c>
@@ -1030,16 +1038,16 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.69921875" customWidth="1"/>
-    <col min="3" max="3" width="2.69921875" customWidth="1"/>
-    <col min="4" max="4" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6">
       <c r="B4" t="s">
         <v>34</v>
       </c>
@@ -1053,7 +1061,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6">
       <c r="B5" t="s">
         <v>95</v>
       </c>
@@ -1061,7 +1069,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6">
       <c r="B6" t="s">
         <v>97</v>
       </c>
@@ -1079,26 +1087,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E69CE1-B0B3-4FB3-BFCF-B6BA63C685D2}">
   <dimension ref="B3:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.3984375" customWidth="1"/>
-    <col min="3" max="3" width="41.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.09765625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8">
       <c r="H3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8">
       <c r="B4" t="s">
         <v>41</v>
       </c>
@@ -1118,7 +1126,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8">
       <c r="B5" t="s">
         <v>47</v>
       </c>
@@ -1138,7 +1146,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8">
       <c r="B6" t="s">
         <v>55</v>
       </c>
@@ -1158,7 +1166,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8">
       <c r="B7" t="s">
         <v>61</v>
       </c>
@@ -1175,7 +1183,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8">
       <c r="B8" t="s">
         <v>62</v>
       </c>
@@ -1195,7 +1203,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8">
       <c r="B9" t="s">
         <v>63</v>
       </c>
@@ -1215,7 +1223,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8">
       <c r="B10" t="s">
         <v>64</v>
       </c>
@@ -1235,7 +1243,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8">
       <c r="B12" t="s">
         <v>85</v>
       </c>
@@ -1243,7 +1251,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8">
       <c r="B13" t="s">
         <v>87</v>
       </c>
@@ -1251,7 +1259,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8">
       <c r="B14" t="s">
         <v>89</v>
       </c>
@@ -1259,7 +1267,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8">
       <c r="B15" t="s">
         <v>91</v>
       </c>
@@ -1267,7 +1275,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8">
       <c r="B16" t="s">
         <v>93</v>
       </c>
@@ -1275,7 +1283,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4">
       <c r="B17" t="s">
         <v>99</v>
       </c>
@@ -1283,7 +1291,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4">
       <c r="B18" t="s">
         <v>101</v>
       </c>
@@ -1291,7 +1299,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4">
       <c r="B19" t="s">
         <v>103</v>
       </c>
@@ -1299,7 +1307,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4">
       <c r="B20" t="s">
         <v>105</v>
       </c>
@@ -1307,7 +1315,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4">
       <c r="B21" t="s">
         <v>107</v>
       </c>
@@ -1315,7 +1323,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:4">
       <c r="B22" t="s">
         <v>109</v>
       </c>
